--- a/Stars - Hospitals/Measure ID History.xlsx
+++ b/Stars - Hospitals/Measure ID History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimur\source\cmsdata\Stars - Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E105D8A-055E-43D8-AB85-04CC59776650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C802D-061A-42EE-A217-350D4116CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94DB4BD9-24C3-42AA-96D3-8D5E02EAC875}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{94DB4BD9-24C3-42AA-96D3-8D5E02EAC875}"/>
   </bookViews>
   <sheets>
     <sheet name="measure_id_history" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="71">
   <si>
     <t>cc_date</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>IMM_3_OP_27</t>
+  </si>
+  <si>
+    <t>HCP_COVID_19</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84F3CB-334D-4658-B392-1B15BA8ED890}">
-  <dimension ref="A1:BO35"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,45 +619,46 @@
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,147 +723,150 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44927</v>
+        <v>45200</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -912,112 +919,115 @@
       <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>60</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44835</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1070,112 +1080,115 @@
       <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>34</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>49</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>52</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>53</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>56</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>59</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>62</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>63</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>65</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44743</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1228,112 +1241,115 @@
       <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>29</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>44</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>46</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>47</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>49</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>52</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>53</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>54</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>55</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>56</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>58</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>59</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>60</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>62</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>63</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>64</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>65</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44652</v>
+        <v>44927</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1386,112 +1402,115 @@
       <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="W5" t="s">
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>31</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>43</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>44</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>45</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>46</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>47</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>49</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>52</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>53</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>54</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>55</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>56</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>58</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>59</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>60</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>63</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>64</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>65</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44562</v>
+        <v>44835</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1544,112 +1563,115 @@
       <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="W6" t="s">
+      <c r="V6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s">
         <v>22</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>27</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>29</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>33</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>34</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>39</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>42</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>43</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>44</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>46</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>47</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>48</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>49</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>52</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>53</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>54</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>55</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>56</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BH6" t="s">
         <v>58</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>59</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>60</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>62</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>63</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BN6" t="s">
         <v>64</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>65</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44470</v>
+        <v>44743</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1702,115 +1724,112 @@
       <c r="U7" t="s">
         <v>20</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>22</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>29</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>31</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>33</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>34</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>37</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>38</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>39</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>42</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>43</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>44</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>45</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>47</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>49</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>52</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>53</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>54</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>55</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>56</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>58</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>59</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>62</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>63</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BN7" t="s">
         <v>64</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>65</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44378</v>
+        <v>44652</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1863,115 +1882,112 @@
       <c r="U8" t="s">
         <v>20</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>22</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>27</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>29</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>34</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>37</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>38</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>39</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>42</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>43</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>44</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>45</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>46</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>47</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>48</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>49</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>52</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>54</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>55</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>56</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>58</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>59</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>62</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>63</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BN8" t="s">
         <v>64</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>65</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44287</v>
+        <v>44562</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2024,115 +2040,112 @@
       <c r="U9" t="s">
         <v>20</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>22</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>27</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>38</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>39</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>42</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>43</v>
       </c>
-      <c r="AS9" t="s">
-        <v>67</v>
-      </c>
       <c r="AT9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AU9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV9" t="s">
         <v>46</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>47</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>48</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>49</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>52</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>53</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>54</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>55</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>56</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>58</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>59</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>60</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>62</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>63</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BN9" t="s">
         <v>64</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BO9" t="s">
         <v>65</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44256</v>
+        <v>44470</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2185,115 +2198,115 @@
       <c r="U10" t="s">
         <v>20</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>22</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>26</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>31</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>34</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>37</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>38</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>39</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>42</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>43</v>
       </c>
-      <c r="AS10" t="s">
-        <v>67</v>
-      </c>
       <c r="AT10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AU10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV10" t="s">
         <v>46</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>47</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>48</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>49</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>52</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>53</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>54</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>55</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>56</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>58</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>59</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>60</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>61</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>62</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>63</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BN10" t="s">
         <v>64</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>65</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2346,122 +2359,119 @@
       <c r="U11" t="s">
         <v>20</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>22</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>37</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>38</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>39</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>42</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>43</v>
       </c>
-      <c r="AS11" t="s">
-        <v>67</v>
-      </c>
       <c r="AT11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AU11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV11" t="s">
         <v>46</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>47</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>48</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>49</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>52</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>53</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>54</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>55</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>56</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BH11" t="s">
         <v>58</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>59</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>60</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>61</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>62</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BM11" t="s">
         <v>63</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>64</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>65</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44105</v>
+        <v>44287</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
@@ -2510,125 +2520,119 @@
       <c r="U12" t="s">
         <v>20</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>22</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>26</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>31</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>34</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>37</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>38</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>39</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>42</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>43</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>67</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>68</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>46</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>47</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>48</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>49</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>52</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>53</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>54</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>55</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>56</v>
       </c>
-      <c r="BF12" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>58</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>59</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>60</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>61</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>62</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>63</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>64</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>65</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44013</v>
+        <v>44256</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
@@ -2677,125 +2681,119 @@
       <c r="U13" t="s">
         <v>20</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>22</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>26</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>27</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>31</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>34</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>37</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>38</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>39</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>43</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>67</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>68</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>47</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>48</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>49</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>52</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>53</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>54</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>55</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>56</v>
       </c>
-      <c r="BF13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG13" t="s">
+      <c r="BH13" t="s">
         <v>58</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>59</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>60</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>61</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>62</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BM13" t="s">
         <v>63</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>64</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>65</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
@@ -2844,124 +2842,115 @@
       <c r="U14" t="s">
         <v>20</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>22</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>27</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>31</v>
       </c>
-      <c r="AG14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>34</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>37</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>38</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>39</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>42</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>43</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>67</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>68</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>46</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>47</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>49</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>52</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>53</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>54</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>56</v>
       </c>
-      <c r="BF14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
         <v>58</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>59</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>60</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>61</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>62</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BM14" t="s">
         <v>63</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BN14" t="s">
         <v>64</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BO14" t="s">
         <v>65</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -3017,134 +3006,122 @@
       <c r="U15" t="s">
         <v>20</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>22</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>23</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>26</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>27</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>29</v>
       </c>
-      <c r="AE15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>31</v>
       </c>
-      <c r="AG15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>33</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>34</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>37</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>38</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>39</v>
       </c>
-      <c r="AP15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>42</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>43</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>67</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>68</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>46</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>47</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>48</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>49</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>52</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>53</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>54</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>55</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>56</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>57</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BH15" t="s">
         <v>58</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>59</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>60</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>61</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
         <v>62</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BM15" t="s">
         <v>63</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
         <v>64</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BO15" t="s">
         <v>65</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -3196,131 +3173,122 @@
       <c r="U16" t="s">
         <v>20</v>
       </c>
-      <c r="V16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>22</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>23</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>24</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>29</v>
       </c>
-      <c r="AE16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>31</v>
       </c>
-      <c r="AG16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>33</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>37</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>38</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>39</v>
       </c>
-      <c r="AP16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>42</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>43</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>67</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>68</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>46</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>47</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>48</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>49</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>52</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>53</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>54</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>55</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>56</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>57</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>58</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>59</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>60</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>61</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>62</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BM16" t="s">
         <v>63</v>
       </c>
+      <c r="BN16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
@@ -3372,131 +3340,128 @@
       <c r="U17" t="s">
         <v>20</v>
       </c>
-      <c r="V17" t="s">
-        <v>21</v>
-      </c>
-      <c r="W17" t="s">
-        <v>69</v>
-      </c>
       <c r="X17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="s">
         <v>23</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>24</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>25</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>30</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>31</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>32</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>33</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>34</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>37</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>38</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>39</v>
       </c>
-      <c r="AP17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>42</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>43</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>67</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>68</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>46</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>47</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>48</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>49</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>52</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>53</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>54</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>55</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>56</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>57</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>58</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>59</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>60</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>61</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>62</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>63</v>
       </c>
+      <c r="BN17" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -3548,127 +3513,127 @@
       <c r="U18" t="s">
         <v>20</v>
       </c>
-      <c r="V18" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" t="s">
-        <v>69</v>
-      </c>
       <c r="X18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="s">
         <v>23</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>24</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>25</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>29</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>31</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>32</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>33</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>34</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>38</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>39</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>42</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>43</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>67</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>68</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>46</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>47</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>48</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>49</v>
       </c>
-      <c r="AY18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>52</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>53</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BD18" t="s">
         <v>54</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BE18" t="s">
         <v>55</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>56</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
         <v>57</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BH18" t="s">
         <v>58</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>59</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>60</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BK18" t="s">
         <v>61</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BL18" t="s">
         <v>62</v>
       </c>
-      <c r="BL18" t="s">
+      <c r="BM18" t="s">
         <v>63</v>
       </c>
+      <c r="BN18" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3727,139 +3692,124 @@
       <c r="U19" t="s">
         <v>20</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>21</v>
       </c>
-      <c r="W19" t="s">
-        <v>69</v>
-      </c>
       <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>29</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>32</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>33</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>38</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>42</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>43</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>67</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>68</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>46</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>47</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>48</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>49</v>
       </c>
-      <c r="AY19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>51</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>52</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>53</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BD19" t="s">
         <v>54</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BE19" t="s">
         <v>55</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>56</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>57</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BH19" t="s">
         <v>58</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>59</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>60</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>61</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
         <v>62</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BM19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3918,139 +3868,124 @@
       <c r="U20" t="s">
         <v>20</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>21</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>69</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>23</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>24</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>26</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>27</v>
       </c>
-      <c r="AC20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>29</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>30</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>31</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>32</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>33</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>37</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>38</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>39</v>
       </c>
-      <c r="AO20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>41</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>42</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>43</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>67</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>68</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>46</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>47</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>48</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>49</v>
       </c>
-      <c r="AY20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>51</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>52</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>53</v>
       </c>
-      <c r="BC20" t="s">
+      <c r="BD20" t="s">
         <v>54</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BE20" t="s">
         <v>55</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>56</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BG20" t="s">
         <v>57</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BH20" t="s">
         <v>58</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>59</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>60</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>61</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BL20" t="s">
         <v>62</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BM20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -4109,139 +4044,127 @@
       <c r="U21" t="s">
         <v>20</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>21</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>69</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>23</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>24</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>27</v>
       </c>
-      <c r="AC21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>29</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>30</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>31</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>33</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>37</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AO21" t="s">
         <v>39</v>
       </c>
-      <c r="AO21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>41</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>42</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>43</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>67</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>68</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>46</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>47</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>48</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>49</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>50</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>51</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>52</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>53</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BD21" t="s">
         <v>54</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BE21" t="s">
         <v>55</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>56</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
         <v>57</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BH21" t="s">
         <v>58</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>59</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>60</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>61</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BL21" t="s">
         <v>62</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BM21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43221</v>
+        <v>43525</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -4264,9 +4187,6 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" t="s">
         <v>9</v>
       </c>
@@ -4303,133 +4223,139 @@
       <c r="U22" t="s">
         <v>20</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>21</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>69</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>23</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>25</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>26</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>28</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>29</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>30</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>31</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>32</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>33</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>35</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>36</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>37</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>38</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>39</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>40</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>41</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>42</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>43</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>67</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>68</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>46</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>47</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>48</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>49</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>50</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>51</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>52</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>53</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BD22" t="s">
         <v>54</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BE22" t="s">
         <v>55</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BF22" t="s">
         <v>56</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BG22" t="s">
         <v>57</v>
       </c>
-      <c r="BG22" t="s">
+      <c r="BH22" t="s">
         <v>58</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>59</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>60</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BK22" t="s">
         <v>61</v>
       </c>
+      <c r="BL22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43101</v>
+        <v>43374</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -4452,9 +4378,6 @@
       <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
@@ -4491,133 +4414,139 @@
       <c r="U23" t="s">
         <v>20</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>69</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>23</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>24</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>26</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>27</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>28</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>29</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>30</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>31</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>32</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>33</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>35</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>36</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>37</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>38</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AO23" t="s">
         <v>39</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>40</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>41</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>42</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>43</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>67</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>68</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>46</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>47</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>48</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>49</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>50</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>51</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>52</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>53</v>
       </c>
-      <c r="BC23" t="s">
+      <c r="BD23" t="s">
         <v>54</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BE23" t="s">
         <v>55</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>56</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
         <v>57</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BH23" t="s">
         <v>58</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>59</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>60</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>61</v>
       </c>
+      <c r="BL23" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43009</v>
+        <v>43282</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -4640,9 +4569,6 @@
       <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" t="s">
         <v>9</v>
       </c>
@@ -4679,127 +4605,139 @@
       <c r="U24" t="s">
         <v>20</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>21</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>69</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>23</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>26</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>28</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>29</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>30</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>31</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>33</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>34</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>35</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>36</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>37</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>38</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>40</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>41</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>42</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>43</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>67</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>68</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>46</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>47</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>48</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>49</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>50</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>51</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>52</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>53</v>
       </c>
-      <c r="BC24" t="s">
+      <c r="BD24" t="s">
         <v>54</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BE24" t="s">
         <v>55</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>56</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BG24" t="s">
         <v>57</v>
       </c>
-      <c r="BG24" t="s">
+      <c r="BH24" t="s">
         <v>58</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>59</v>
       </c>
+      <c r="BJ24" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42917</v>
+        <v>43221</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -4861,127 +4799,133 @@
       <c r="U25" t="s">
         <v>20</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>21</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>69</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>23</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>26</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>27</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>28</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>29</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>30</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>31</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>32</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>33</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>34</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>35</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>36</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>37</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>38</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>40</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>41</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>42</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>43</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>67</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>68</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AV25" t="s">
         <v>46</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>47</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>48</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>49</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>50</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>51</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>52</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>53</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BD25" t="s">
         <v>54</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BE25" t="s">
         <v>55</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BF25" t="s">
         <v>56</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BG25" t="s">
         <v>57</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BH25" t="s">
         <v>58</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>59</v>
       </c>
+      <c r="BJ25" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42826</v>
+        <v>43101</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -5043,121 +4987,133 @@
       <c r="U26" t="s">
         <v>20</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>21</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>69</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>23</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>25</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>26</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>27</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>28</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>29</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>30</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>31</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>32</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>33</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>34</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>35</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>36</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>37</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>38</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>39</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>40</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>42</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>43</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>67</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>68</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>46</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>47</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>48</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>49</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>50</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>51</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>52</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>53</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>54</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>55</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>56</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>57</v>
       </c>
+      <c r="BH26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42705</v>
+        <v>43009</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -5219,121 +5175,127 @@
       <c r="U27" t="s">
         <v>20</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>69</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>25</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>26</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>27</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>28</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>29</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>30</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>31</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>32</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>33</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>34</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>35</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>37</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>38</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AO27" t="s">
         <v>39</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AP27" t="s">
         <v>40</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>41</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>42</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AS27" t="s">
         <v>43</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>67</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>68</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>46</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
         <v>47</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>48</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>49</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>50</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>51</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>52</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>53</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BD27" t="s">
         <v>54</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BE27" t="s">
         <v>55</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>56</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BG27" t="s">
         <v>57</v>
       </c>
+      <c r="BH27" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42675</v>
+        <v>42917</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -5395,121 +5357,127 @@
       <c r="U28" t="s">
         <v>20</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>21</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>69</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>26</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>27</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>28</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>29</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>30</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>31</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>32</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>33</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>34</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>35</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>36</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>37</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>38</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
         <v>39</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AP28" t="s">
         <v>40</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>41</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>42</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>43</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>67</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AU28" t="s">
         <v>68</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AV28" t="s">
         <v>46</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW28" t="s">
         <v>47</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>48</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>49</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>50</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>51</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>52</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>53</v>
       </c>
-      <c r="BC28" t="s">
+      <c r="BD28" t="s">
         <v>54</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BE28" t="s">
         <v>55</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>56</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BG28" t="s">
         <v>57</v>
       </c>
+      <c r="BH28" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42583</v>
+        <v>42826</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -5571,121 +5539,121 @@
       <c r="U29" t="s">
         <v>20</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>21</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>69</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>23</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>26</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>27</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>28</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>29</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>30</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>31</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>32</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>33</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>34</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>35</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>36</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>37</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>38</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
         <v>39</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AP29" t="s">
         <v>40</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>41</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>42</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AS29" t="s">
         <v>43</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>67</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AU29" t="s">
         <v>68</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>46</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>47</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>48</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>49</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>50</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>51</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>52</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>53</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BD29" t="s">
         <v>54</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BE29" t="s">
         <v>55</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BF29" t="s">
         <v>56</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BG29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42491</v>
+        <v>42705</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -5747,115 +5715,121 @@
       <c r="U30" t="s">
         <v>20</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>21</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>69</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>23</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>24</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>25</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>26</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>27</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>28</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>29</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>30</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>31</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>32</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
         <v>33</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AJ30" t="s">
         <v>34</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>35</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>36</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>37</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AN30" t="s">
         <v>38</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AO30" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AP30" t="s">
         <v>40</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AR30" t="s">
         <v>42</v>
       </c>
-      <c r="AR30" t="s">
+      <c r="AS30" t="s">
         <v>43</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AT30" t="s">
         <v>67</v>
       </c>
-      <c r="AT30" t="s">
+      <c r="AU30" t="s">
         <v>68</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>46</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AW30" t="s">
         <v>47</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>48</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="AY30" t="s">
         <v>49</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AZ30" t="s">
         <v>50</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BA30" t="s">
         <v>51</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BB30" t="s">
         <v>52</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BC30" t="s">
         <v>53</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
         <v>54</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BE30" t="s">
         <v>55</v>
       </c>
+      <c r="BF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42339</v>
+        <v>42675</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -5917,115 +5891,121 @@
       <c r="U31" t="s">
         <v>20</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>21</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>69</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>23</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>24</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>25</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>26</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>27</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>29</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>30</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>31</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>32</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>33</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>34</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>35</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31" t="s">
         <v>36</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>37</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AN31" t="s">
         <v>38</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AO31" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AP31" t="s">
         <v>40</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>41</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AR31" t="s">
         <v>42</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AS31" t="s">
         <v>43</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>67</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>68</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>46</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
         <v>47</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AX31" t="s">
         <v>48</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AY31" t="s">
         <v>49</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AZ31" t="s">
         <v>50</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BA31" t="s">
         <v>51</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>52</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BC31" t="s">
         <v>53</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BD31" t="s">
         <v>54</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="BE31" t="s">
         <v>55</v>
       </c>
+      <c r="BF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42278</v>
+        <v>42583</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -6087,115 +6067,121 @@
       <c r="U32" t="s">
         <v>20</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>21</v>
       </c>
-      <c r="W32" t="s">
-        <v>22</v>
-      </c>
       <c r="X32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y32" t="s">
         <v>23</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>24</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>25</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>26</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>27</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>28</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>29</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>30</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>31</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>32</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
         <v>33</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>35</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AL32" t="s">
         <v>36</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>37</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AN32" t="s">
         <v>38</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AO32" t="s">
         <v>39</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AP32" t="s">
         <v>40</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>41</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AR32" t="s">
         <v>42</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>43</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>67</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>68</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>46</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
         <v>47</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>48</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>49</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>50</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BA32" t="s">
         <v>51</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BB32" t="s">
         <v>52</v>
       </c>
-      <c r="BB32" t="s">
+      <c r="BC32" t="s">
         <v>53</v>
       </c>
-      <c r="BC32" t="s">
+      <c r="BD32" t="s">
         <v>54</v>
       </c>
-      <c r="BD32" t="s">
+      <c r="BE32" t="s">
         <v>55</v>
       </c>
+      <c r="BF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42491</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -6257,109 +6243,115 @@
       <c r="U33" t="s">
         <v>20</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>21</v>
       </c>
-      <c r="W33" t="s">
-        <v>22</v>
-      </c>
       <c r="X33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" t="s">
         <v>23</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>24</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>25</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>26</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>27</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>28</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>29</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>30</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>31</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>32</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>33</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>34</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>35</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33" t="s">
         <v>36</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>37</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="AN33" t="s">
         <v>38</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AO33" t="s">
         <v>39</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AP33" t="s">
         <v>40</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>41</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AR33" t="s">
         <v>42</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AS33" t="s">
         <v>43</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>67</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AU33" t="s">
         <v>68</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>46</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
         <v>47</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AX33" t="s">
         <v>48</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="AY33" t="s">
         <v>49</v>
       </c>
-      <c r="AY33" t="s">
+      <c r="AZ33" t="s">
         <v>50</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BA33" t="s">
         <v>51</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BB33" t="s">
         <v>52</v>
       </c>
-      <c r="BB33" t="s">
+      <c r="BC33" t="s">
         <v>53</v>
       </c>
+      <c r="BD33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42095</v>
+        <v>42339</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -6421,103 +6413,115 @@
       <c r="U34" t="s">
         <v>20</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>21</v>
       </c>
-      <c r="W34" t="s">
-        <v>22</v>
-      </c>
       <c r="X34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y34" t="s">
         <v>23</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>24</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>26</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>27</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>28</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>29</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>30</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>31</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>32</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
         <v>33</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AJ34" t="s">
         <v>34</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
         <v>35</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AL34" t="s">
         <v>36</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>37</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AN34" t="s">
         <v>38</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AO34" t="s">
         <v>39</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AP34" t="s">
         <v>40</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>41</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AR34" t="s">
         <v>42</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AS34" t="s">
         <v>43</v>
       </c>
-      <c r="AS34" t="s">
+      <c r="AT34" t="s">
         <v>67</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AU34" t="s">
         <v>68</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>46</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AW34" t="s">
         <v>47</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>48</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AY34" t="s">
         <v>49</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="AZ34" t="s">
         <v>50</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BA34" t="s">
         <v>51</v>
       </c>
+      <c r="BB34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42005</v>
+        <v>42278</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -6579,97 +6583,589 @@
       <c r="U35" t="s">
         <v>20</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>21</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>22</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>23</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>24</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>25</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>26</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>27</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>28</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>29</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>31</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>32</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>33</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>34</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>35</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35" t="s">
         <v>36</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>37</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AN35" t="s">
         <v>38</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
         <v>39</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>40</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>41</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AR35" t="s">
         <v>42</v>
       </c>
-      <c r="AR35" t="s">
+      <c r="AS35" t="s">
         <v>43</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>67</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AU35" t="s">
         <v>68</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>46</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>47</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>48</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>49</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>50</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA38" t="s">
         <v>51</v>
       </c>
     </row>
